--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_C_E_T/2_C_V_A_E/2_Form_1329_DEF_SD/CVAE_F_1329_DEF_SD.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/5_C_E_T/2_C_V_A_E/2_Form_1329_DEF_SD/CVAE_F_1329_DEF_SD.xlsx
@@ -9,13 +9,482 @@
   <sheets>
     <sheet name="CVAE_F_1329_DEF_SD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+  <si>
+    <t>DECLARATION DE LIQUIDATION ET DE REGULARISATION</t>
+  </si>
+  <si>
+    <t>Service compétent où doit être adressée la déclaration :</t>
+  </si>
+  <si>
+    <t>Nom et adresse de l'établissement :</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>Code service</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>N° d'identification de l'établissement principal (SIRET)</t>
+  </si>
+  <si>
+    <t>Adresse de l'établissement principal</t>
+  </si>
+  <si>
+    <t>N° FRP - Clé</t>
+  </si>
+  <si>
+    <t>Date limite de paiement</t>
+  </si>
+  <si>
+    <t>PAIEMENT OU EXCEDENT</t>
+  </si>
+  <si>
+    <t>CVAE DUE</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>EXCEDENT DE VERSEMENT</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>(Ligne 26 - ligne 25)</t>
+  </si>
+  <si>
+    <t>(Ligne 25 - ligne 26)</t>
+  </si>
+  <si>
+    <t>Remboursement d'excédent de versement demandé : (cocher par Oui ou Non)</t>
+  </si>
+  <si>
+    <t>(Joindre un RIB s'il s'agit d'une première demande de remboursement ou en cas de changement de compte)</t>
+  </si>
+  <si>
+    <t>PAIEMENT, DATE, SIGNATURE</t>
+  </si>
+  <si>
+    <t>Date :</t>
+  </si>
+  <si>
+    <t>Signature:</t>
+  </si>
+  <si>
+    <t>Téléphone :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse électronique : </t>
+  </si>
+  <si>
+    <t>RESERVE A L'ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>Somme :</t>
+  </si>
+  <si>
+    <t>N° d'opération :</t>
+  </si>
+  <si>
+    <t>Cachet du service</t>
+  </si>
+  <si>
+    <t>CADRE RESERVE A LA CORRESPONDANCE</t>
+  </si>
+  <si>
+    <t>Les dispositions des articles 39 et 40 de la loi n° 78-17 du 6 janvier 1978 relative à l'informatique, aux fichiers et aux libertés, modifiées par la loi n° 2004-801 du 6 août 2004, garantissent les droits des personnes physiques à l'égard des traitements des données à caractère personnel.</t>
+  </si>
+  <si>
+    <t>DONNEES DE CHIFFRE D'AFFAIRES</t>
+  </si>
+  <si>
+    <t>MONTANT DU CHIFFRE D'AFFAIRES</t>
+  </si>
+  <si>
+    <t>('01')</t>
+  </si>
+  <si>
+    <t>Montant du CA de la période de référence</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>('02')</t>
+  </si>
+  <si>
+    <t>Montant du CA réel si la période de référence est différente de 12 mois</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>('03')</t>
+  </si>
+  <si>
+    <t>Montant du CA de référence du groupe / Le montant porté à cette ligne doit etre supérieur ou égal à 7 630 000 euros</t>
+  </si>
+  <si>
+    <t>CALCUL DU POURCENTAGE DE LA VALEUR AJOUTEE CORRESPONDANTE</t>
+  </si>
+  <si>
+    <t>Le pourcentage à calculer et à porter dans la case B varie selon le montant du chiffre d'affaires, mentionné au cadre A1 conformément au barème suivant :</t>
+  </si>
+  <si>
+    <t>Si le montant de votre CA est :</t>
+  </si>
+  <si>
+    <t>Alors, le taux à porter cadre B sera calculé comme suit :</t>
+  </si>
+  <si>
+    <t>&lt; 500 000 €</t>
+  </si>
+  <si>
+    <t>[0,5 x (CA-500 000)] / 2 500 000</t>
+  </si>
+  <si>
+    <t>500 000€ &lt;= CA &lt;= 3 000 000 €</t>
+  </si>
+  <si>
+    <t>3 000 000 € &lt; CA &lt;= 10 000 000 €</t>
+  </si>
+  <si>
+    <t>([0,9 x (CA-3 000 000)] / 7 000 000) + 0,5</t>
+  </si>
+  <si>
+    <t>10 000 000 € &lt; CA &lt;= 50 000 000 €</t>
+  </si>
+  <si>
+    <t>([0,1 x (CA-10 000 000)] / 40 000 000) + 1,4</t>
+  </si>
+  <si>
+    <t>Supérieur à 50 000 000 €</t>
+  </si>
+  <si>
+    <t>('04')</t>
+  </si>
+  <si>
+    <t>Taux exprimé en pourcentage arrondi au centième le plus proche</t>
+  </si>
+  <si>
+    <t>B [%]</t>
+  </si>
+  <si>
+    <t>DONNEES DE VALEUR AJOUTEE</t>
+  </si>
+  <si>
+    <t>VALEUR AJOUTEE PRODUITE</t>
+  </si>
+  <si>
+    <t>('05')</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Le montant à porter dans ce cadre figure sur les imprimés 2059-E (ligne SA), 2033-E (ligne 117), 2035-E (ligne JU) et 2072-E (ligne D12).</t>
+  </si>
+  <si>
+    <t>LIMITATION DE LA VALEUR AJOUTEE</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>('06')</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Pour certaines entreprises notamment à caractère financier (Cf. notice), cochez la case ci-contre par Oui ou Non et ne remplissez pas la case D.</t>
+  </si>
+  <si>
+    <t>Si CA &gt; 7 600 000 €, le montant à porter dans le cadre D correspond à 85% du chiffre d''affaires porté au cadre A1 ou A2</t>
+  </si>
+  <si>
+    <t>Si CA &lt;= 7 600 000 €, le montant à porter dans le cadre D correspond à 80% du chiffre d'affaires porté au cadre A1 ou A2</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA CVAE BRUTE</t>
+  </si>
+  <si>
+    <t>Le montant de la cotisation sur la valeur ajoutée à porter dans la case E est obtenue par le calcul suivant :</t>
+  </si>
+  <si>
+    <t>Si C &lt; D, alors le montant de la cotisation sur la valeur ajoutée est égal à C multiplié par B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si C &gt; D, alors le montant de la cotisation sur la valeur ajoutée est égal à D multiplié par B</t>
+  </si>
+  <si>
+    <t>Si vous avez coché la case D0 ci-dessus, le montant de la cotisation sur la valeur ajoutée est égal à C multiplié parB</t>
+  </si>
+  <si>
+    <t>('07')</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>CALCUL DE LA COTISATION SUR LA VALEUR AJOUTEE</t>
+  </si>
+  <si>
+    <t>CALCUL DE LA COTISATION AVANT REDUCTION</t>
+  </si>
+  <si>
+    <t>MONTANT DU CA (cadre A1)</t>
+  </si>
+  <si>
+    <t>CA &lt; 2 000 000 €</t>
+  </si>
+  <si>
+    <t>CA =&gt; 2 000 000 €</t>
+  </si>
+  <si>
+    <t>CADRE E</t>
+  </si>
+  <si>
+    <t>MONTANT A REPORTER CADRE F</t>
+  </si>
+  <si>
+    <t>E &lt;= 1000 €</t>
+  </si>
+  <si>
+    <t>E &gt;1000 €</t>
+  </si>
+  <si>
+    <t>(E - 1000 €)</t>
+  </si>
+  <si>
+    <t>TOUT MONTANT</t>
+  </si>
+  <si>
+    <t>('08')</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MINORATION</t>
+  </si>
+  <si>
+    <t>('09')</t>
+  </si>
+  <si>
+    <t>Exonérations</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Réduction supplémentaire</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>('10')</t>
+  </si>
+  <si>
+    <t>CVAE</t>
+  </si>
+  <si>
+    <t>CVAE due (F - G - H) ou cotisation minimum (Cf. notice)</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Acomptes de CVAE versés</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>('11')</t>
+  </si>
+  <si>
+    <t>('12')</t>
+  </si>
+  <si>
+    <t>('13')</t>
+  </si>
+  <si>
+    <t>Solde de CVAE à payer (I1 - I2)</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>('14')</t>
+  </si>
+  <si>
+    <t>Excédent de CVAE constaté (I2 - I1)</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>TAXE ADDITIONNELLE</t>
+  </si>
+  <si>
+    <t>Si vous êtes exonéré du paiement de la taxe additionnelle (Cf. notice), cochez la case ci-contre par Oui ou Non:</t>
+  </si>
+  <si>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>('15')</t>
+  </si>
+  <si>
+    <t>('16')</t>
+  </si>
+  <si>
+    <t>('17')</t>
+  </si>
+  <si>
+    <t>('18')</t>
+  </si>
+  <si>
+    <t>Taxe additionnelle due (I1 x 1,83%)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Acomptes de taxe additionnelle versés</t>
+  </si>
+  <si>
+    <t>Solde de taxe additionnelle à payer (J1 - J2)</t>
+  </si>
+  <si>
+    <t>Excédent de taxe additionnelle constaté (J2 - J1)</t>
+  </si>
+  <si>
+    <t>CADRE RESERVE</t>
+  </si>
+  <si>
+    <t>('19')</t>
+  </si>
+  <si>
+    <t>K0</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>FRAIS DE GESTION</t>
+  </si>
+  <si>
+    <t>Frais de gestion dus (1 % de I1 + J1)</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>('20')</t>
+  </si>
+  <si>
+    <t>('21')</t>
+  </si>
+  <si>
+    <t>('22')</t>
+  </si>
+  <si>
+    <t>('23')</t>
+  </si>
+  <si>
+    <t>Acomptes de frais de gestion versés</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Solde des frais de gestion à payer (L1 - L2)</t>
+  </si>
+  <si>
+    <t>Excédent de frais de gestion constaté (L2 - L1)</t>
+  </si>
+  <si>
+    <t>RECAPITULATIF</t>
+  </si>
+  <si>
+    <t>Total des acomptes versés (I2 + J2 + L2)</t>
+  </si>
+  <si>
+    <t>('24')</t>
+  </si>
+  <si>
+    <t>('25')</t>
+  </si>
+  <si>
+    <t>TOTAL A PAYER (I3 + J3 + L3)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>('26')</t>
+  </si>
+  <si>
+    <t>TOTAL DES EXCEDENTS (I4 + J4 + L4)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,15 +493,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -40,14 +551,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,12 +1204,1309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>28</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+    </row>
+    <row r="51" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="35">
+        <v>0</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+    </row>
+    <row r="67" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="53"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="56"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="58"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="38"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="42">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="53"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="56"/>
+      <c r="E86" s="58"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="56"/>
+      <c r="E87" s="58"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="56">
+        <f>C84-D86-D87</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="58"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="56"/>
+      <c r="E90" s="58"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="56">
+        <f>D89-D90</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="58"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="56">
+        <f>D90-D89</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="58"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="56"/>
+      <c r="E94" s="58"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="52">
+        <f>D89*(1.83/100)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="53"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="52"/>
+      <c r="E96" s="53"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="52"/>
+      <c r="E98" s="53"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="55">
+        <f>(1/100)*D89+D95</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="55"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="56"/>
+      <c r="E104" s="58"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="56">
+        <f>D103-D104</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="58"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="56">
+        <f>D104-D103</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="58"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="61">
+        <f>D104+D96+D90</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="27"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D109" s="61">
+        <f>D91+D97+D105</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="27"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D110" s="61">
+        <f>D92+D98+D106</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E42"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>